--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_30_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_30_8.xlsx
@@ -518,166 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_30_8_0</t>
+          <t>model_30_8_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9937000243236628</v>
+        <v>0.9775849405115717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8131223173180929</v>
+        <v>0.7811900112232568</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9995224820300176</v>
+        <v>0.9514332963039126</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8795618587932208</v>
+        <v>0.9529890230335435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9941854621214407</v>
+        <v>0.9629097651195463</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04212796635638761</v>
+        <v>0.1498896060109784</v>
       </c>
       <c r="H2" t="n">
-        <v>1.249651924586519</v>
+        <v>1.463183402477437</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01117349502460587</v>
+        <v>0.1669422124547944</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1325041741549999</v>
+        <v>0.4002333681410194</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07183883458980288</v>
+        <v>0.2835878748824321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.658242790276787</v>
+        <v>0.5444130193214071</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2052509838134463</v>
+        <v>0.3871557903621982</v>
       </c>
       <c r="N2" t="n">
-        <v>1.002326144865109</v>
+        <v>1.008276329657266</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2139889431224945</v>
+        <v>0.4036378138808872</v>
       </c>
       <c r="P2" t="n">
-        <v>184.3340869496661</v>
+        <v>181.7957124315283</v>
       </c>
       <c r="Q2" t="n">
-        <v>292.8140353629359</v>
+        <v>290.2756608447981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_30_8_1</t>
+          <t>model_30_8_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9933210626073673</v>
+        <v>0.9789752695305514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8127605609077394</v>
+        <v>0.7811138701125313</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9993665788120092</v>
+        <v>0.9442685834532016</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8477515101803008</v>
+        <v>0.9543887786875794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9926215135577199</v>
+        <v>0.9620785545533689</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04466208509821362</v>
+        <v>0.1405924694591852</v>
       </c>
       <c r="H3" t="n">
-        <v>1.252070991368288</v>
+        <v>1.463692558435457</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01482149141477661</v>
+        <v>0.1915700525978211</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1675014261077755</v>
+        <v>0.3883163871263733</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09116147802641801</v>
+        <v>0.2899432198620972</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7160677565759157</v>
+        <v>0.5183346683820297</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2113340604309055</v>
+        <v>0.3749566234368787</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002466069191126</v>
+        <v>1.007762977404104</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2203309889052635</v>
+        <v>0.3909193031637999</v>
       </c>
       <c r="P3" t="n">
-        <v>184.2172606907766</v>
+        <v>181.9237797221484</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.6972091040464</v>
+        <v>290.4037281354182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_30_8_2</t>
+          <t>model_30_8_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9927988398452705</v>
+        <v>0.9754947963039522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8122896011804078</v>
+        <v>0.7808027989218521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9991964431188114</v>
+        <v>0.9575855081396237</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8147624692664431</v>
+        <v>0.9505467309706251</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9909916187914322</v>
+        <v>0.9629329752225482</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04815419111297003</v>
+        <v>0.1638664099515594</v>
       </c>
       <c r="H4" t="n">
-        <v>1.255220301233525</v>
+        <v>1.46577269291988</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01880251504310878</v>
+        <v>0.1457947229778234</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2037954570406455</v>
+        <v>0.4210261029744894</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1112988892806963</v>
+        <v>0.2834104129761564</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7665244603823271</v>
+        <v>0.5736603633852803</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2194406323199284</v>
+        <v>0.4048041624681735</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002658889903285</v>
+        <v>1.009048075210848</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2287826743425193</v>
+        <v>0.4220375137245804</v>
       </c>
       <c r="P4" t="n">
-        <v>184.0666942033627</v>
+        <v>181.6174075131386</v>
       </c>
       <c r="Q4" t="n">
-        <v>292.5466426166325</v>
+        <v>290.0973559264084</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9921910279033407</v>
+        <v>0.9798413594684279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.811755913954933</v>
+        <v>0.780719459900261</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9990187681473459</v>
+        <v>0.9364543119745403</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7818851839871106</v>
+        <v>0.9550774565578406</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9893595343495523</v>
+        <v>0.9607054325134703</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05221863236737123</v>
+        <v>0.1348009220566275</v>
       </c>
       <c r="H5" t="n">
-        <v>1.258789070167679</v>
+        <v>1.466329981341</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02295995106533988</v>
+        <v>0.2184306725306335</v>
       </c>
       <c r="J5" t="n">
-        <v>0.239966536158488</v>
+        <v>0.3824532487411512</v>
       </c>
       <c r="K5" t="n">
-        <v>0.131463354059426</v>
+        <v>0.3004419606358923</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8106139089725941</v>
+        <v>0.4951053522996764</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2285139653661702</v>
+        <v>0.3671524507021947</v>
       </c>
       <c r="N5" t="n">
-        <v>1.002883312774151</v>
+        <v>1.007443190350119</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2382422779609283</v>
+        <v>0.3827828906389357</v>
       </c>
       <c r="P5" t="n">
-        <v>183.904631811757</v>
+        <v>182.0079124806892</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.3845802250268</v>
+        <v>290.4878608939591</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9915390699708758</v>
+        <v>0.9803169066803153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8111920779608153</v>
+        <v>0.7801126783472359</v>
       </c>
       <c r="D6" t="n">
-        <v>0.998838686119467</v>
+        <v>0.9282696163781785</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7499688679485152</v>
+        <v>0.9552888279260504</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9877679867473312</v>
+        <v>0.9589833065013211</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05657827806375355</v>
+        <v>0.1316209356610421</v>
       </c>
       <c r="H6" t="n">
-        <v>1.26255944405657</v>
+        <v>1.470387532380051</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0271737100629332</v>
+        <v>0.2465645808904825</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2750803718287284</v>
+        <v>0.3806537142475896</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1511269846566848</v>
+        <v>0.313609147569036</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8491932029735411</v>
+        <v>0.474417699336284</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2378618886323607</v>
+        <v>0.3627959973057064</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003124035703061</v>
+        <v>1.007267603687268</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2479881616734293</v>
+        <v>0.3782409740022572</v>
       </c>
       <c r="P6" t="n">
-        <v>183.7442602944553</v>
+        <v>182.0556583743469</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.2242087077252</v>
+        <v>290.5356067876168</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.990872014556735</v>
+        <v>0.9805036681847281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8106208446110463</v>
+        <v>0.7793708416246476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9986600314073079</v>
+        <v>0.9199318074720926</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7195426951526553</v>
+        <v>0.9551858880929825</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9862441151941698</v>
+        <v>0.9570517660740845</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06103888068962151</v>
+        <v>0.1303720606210765</v>
       </c>
       <c r="H7" t="n">
-        <v>1.266379284096762</v>
+        <v>1.475348197959843</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03135407114443656</v>
+        <v>0.2752247978678888</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3085547750253947</v>
+        <v>0.3815301043752403</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1699544751176799</v>
+        <v>0.3283774941911338</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8830220989503396</v>
+        <v>0.456006657262109</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2470604798214832</v>
+        <v>0.3610707141559344</v>
       </c>
       <c r="N7" t="n">
-        <v>1.003370333086744</v>
+        <v>1.007198645593331</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2575783559331816</v>
+        <v>0.376442241976971</v>
       </c>
       <c r="P7" t="n">
-        <v>183.5924884590001</v>
+        <v>182.0747258229743</v>
       </c>
       <c r="Q7" t="n">
-        <v>292.0724368722699</v>
+        <v>290.5546742362441</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9902100720331126</v>
+        <v>0.9804794642336006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8100576410883109</v>
+        <v>0.7785500391149208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9984856035544913</v>
+        <v>0.9116077998891785</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6909142859846167</v>
+        <v>0.9548822141072409</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9848042889634239</v>
+        <v>0.9550115816202303</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06546529339304907</v>
+        <v>0.1305339125537154</v>
       </c>
       <c r="H8" t="n">
-        <v>1.270145428646608</v>
+        <v>1.480836908121834</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03543552748349174</v>
+        <v>0.3038375744540445</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3400513065740638</v>
+        <v>0.384115467836563</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1877435824532811</v>
+        <v>0.3439765211453037</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9127480504251519</v>
+        <v>0.4396250009702746</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2558618638895783</v>
+        <v>0.3612947723863651</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003614742633928</v>
+        <v>1.007207582436825</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2667544331424321</v>
+        <v>0.3766758388301356</v>
       </c>
       <c r="P8" t="n">
-        <v>183.452470297269</v>
+        <v>182.0722444393336</v>
       </c>
       <c r="Q8" t="n">
-        <v>291.9324187105388</v>
+        <v>290.5521928526034</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9895669311008064</v>
+        <v>0.9803039688628155</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8095128919042798</v>
+        <v>0.7776909799238597</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9983174611819586</v>
+        <v>0.9034271694967297</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6642357508504004</v>
+        <v>0.9544568115284028</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9834572449170718</v>
+        <v>0.9529358490073719</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0697659797687728</v>
+        <v>0.1317074509062375</v>
       </c>
       <c r="H9" t="n">
-        <v>1.273788168948564</v>
+        <v>1.486581440888064</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03936990918432887</v>
+        <v>0.3319575091635594</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3694026169663028</v>
+        <v>0.3877371816985352</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2043863624045308</v>
+        <v>0.3598473454310473</v>
       </c>
       <c r="L9" t="n">
-        <v>0.938912141939565</v>
+        <v>0.4250445563009031</v>
       </c>
       <c r="M9" t="n">
-        <v>0.264132504188282</v>
+        <v>0.3629152117316626</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003852210055087</v>
+        <v>1.007272380727576</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2753771717212373</v>
+        <v>0.3783652636331343</v>
       </c>
       <c r="P9" t="n">
-        <v>183.3252175677853</v>
+        <v>182.0543441939893</v>
       </c>
       <c r="Q9" t="n">
-        <v>291.8051659810551</v>
+        <v>290.5342926072591</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9889513808864191</v>
+        <v>0.9800227640742475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8089931082703239</v>
+        <v>0.7768227532611383</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9981569700803873</v>
+        <v>0.8954874289497456</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6395513641971808</v>
+        <v>0.9539635696172337</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9822062358108143</v>
+        <v>0.9508764959089956</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07388216688672834</v>
+        <v>0.1335878686222204</v>
       </c>
       <c r="H10" t="n">
-        <v>1.277263964502209</v>
+        <v>1.492387276579498</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04312525796202613</v>
+        <v>0.3592494139534111</v>
       </c>
       <c r="J10" t="n">
-        <v>0.396559996142323</v>
+        <v>0.3919364535315027</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2198426270521745</v>
+        <v>0.3755929337424569</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9619917263925071</v>
+        <v>0.4120611579945093</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2718127423185461</v>
+        <v>0.3654967422867411</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004079490134245</v>
+        <v>1.00737621018797</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2833843734889914</v>
+        <v>0.3810566952884474</v>
       </c>
       <c r="P10" t="n">
-        <v>183.2105675885325</v>
+        <v>182.0259916514568</v>
       </c>
       <c r="Q10" t="n">
-        <v>291.6905160018023</v>
+        <v>290.5059400647266</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9883689233445124</v>
+        <v>0.9796706614580423</v>
       </c>
       <c r="C11" t="n">
-        <v>0.808502363137853</v>
+        <v>0.7759659861646764</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9980050429604203</v>
+        <v>0.8878595628997213</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6168397656083094</v>
+        <v>0.9534394614527607</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9810511588620114</v>
+        <v>0.9488700632475205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0777770631514287</v>
+        <v>0.1359423804380679</v>
       </c>
       <c r="H11" t="n">
-        <v>1.280545579462716</v>
+        <v>1.498116482098589</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04668021720076613</v>
+        <v>0.3854692876073537</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4215469445010782</v>
+        <v>0.3963985087678127</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2341136462796054</v>
+        <v>0.3909338981875832</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9823804118396714</v>
+        <v>0.4004983985086462</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2788853942956294</v>
+        <v>0.3687036485282834</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004294551380488</v>
+        <v>1.0075062173078</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2907581229031472</v>
+        <v>0.3844001261679031</v>
       </c>
       <c r="P11" t="n">
-        <v>183.1078174187404</v>
+        <v>181.9910483125409</v>
       </c>
       <c r="Q11" t="n">
-        <v>291.5877658320103</v>
+        <v>290.4709967258107</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9878224688778759</v>
+        <v>0.9792741051075428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8080426854271286</v>
+        <v>0.775135038794307</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9978621823563669</v>
+        <v>0.8805940057203543</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5960290677887625</v>
+        <v>0.9529090482648088</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9799893091467204</v>
+        <v>0.9469415622994579</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08143120668601825</v>
+        <v>0.1385941545798324</v>
       </c>
       <c r="H12" t="n">
-        <v>1.283619446430951</v>
+        <v>1.503673030990409</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05002302804547898</v>
+        <v>0.4104437680215572</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4444425513291011</v>
+        <v>0.4009142425478592</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2472328395240596</v>
+        <v>0.4056790052847082</v>
       </c>
       <c r="L12" t="n">
-        <v>1.000430174206751</v>
+        <v>0.3901938047471973</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2853615368020334</v>
+        <v>0.3722823586739404</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004496319183553</v>
+        <v>1.007652638114138</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2975099682035118</v>
+        <v>0.3881311894134122</v>
       </c>
       <c r="P12" t="n">
-        <v>183.0159934098435</v>
+        <v>181.9524107357288</v>
       </c>
       <c r="Q12" t="n">
-        <v>291.4959418231134</v>
+        <v>290.4323591489986</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9873133353418149</v>
+        <v>0.9788530007982811</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8076147547648741</v>
+        <v>0.7743393721202765</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9977285965238911</v>
+        <v>0.8737223737339825</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5770266331832242</v>
+        <v>0.9523886752641867</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9790167592925384</v>
+        <v>0.9451072000812893</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08483578498600319</v>
+        <v>0.1414100810348723</v>
       </c>
       <c r="H13" t="n">
-        <v>1.286481020739887</v>
+        <v>1.50899365770336</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05314881749918682</v>
+        <v>0.4340641778842188</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4653487350273224</v>
+        <v>0.405344498036428</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2592487296195652</v>
+        <v>0.4197043379603234</v>
       </c>
       <c r="L13" t="n">
-        <v>1.016427804205439</v>
+        <v>0.3810051140306456</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2912658321636837</v>
+        <v>0.3760453177941088</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004684306950715</v>
+        <v>1.007808122782173</v>
       </c>
       <c r="O13" t="n">
-        <v>0.303665621642284</v>
+        <v>0.3920543454937254</v>
       </c>
       <c r="P13" t="n">
-        <v>182.9340756648774</v>
+        <v>181.912182467227</v>
       </c>
       <c r="Q13" t="n">
-        <v>291.4140240781472</v>
+        <v>290.3921308804969</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9868414585176714</v>
+        <v>0.9784222904646891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8072184676621073</v>
+        <v>0.7735850799269156</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9976043019304611</v>
+        <v>0.8672638208423706</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5597182323394615</v>
+        <v>0.9518885559893273</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9781284149508639</v>
+        <v>0.9433769684555278</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08799122748184406</v>
+        <v>0.1442902430188409</v>
       </c>
       <c r="H14" t="n">
-        <v>1.289130994420824</v>
+        <v>1.51403761307356</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05605720023780108</v>
+        <v>0.4562646779578702</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4843911690666265</v>
+        <v>0.4096023210974554</v>
       </c>
       <c r="K14" t="n">
-        <v>0.270224257435054</v>
+        <v>0.4329334995276628</v>
       </c>
       <c r="L14" t="n">
-        <v>1.030627142154793</v>
+        <v>0.3728038741105136</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2966331530389751</v>
+        <v>0.3798555554666022</v>
       </c>
       <c r="N14" t="n">
-        <v>1.004858538393475</v>
+        <v>1.007967154289961</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3092614404791225</v>
+        <v>0.3960267928722161</v>
       </c>
       <c r="P14" t="n">
-        <v>182.8610363143588</v>
+        <v>181.8718568628709</v>
       </c>
       <c r="Q14" t="n">
-        <v>291.3409847276286</v>
+        <v>290.3518052761407</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9864060726138505</v>
+        <v>0.9779929236996197</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8068529154617341</v>
+        <v>0.7728757063014826</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9974891141804224</v>
+        <v>0.8612252372895819</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5439874065221564</v>
+        <v>0.9514148800928715</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9773189533324409</v>
+        <v>0.9417558623084693</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09090265502546148</v>
+        <v>0.1471614205539122</v>
       </c>
       <c r="H15" t="n">
-        <v>1.291575443667931</v>
+        <v>1.518781197773195</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05875249095534279</v>
+        <v>0.4770215838558693</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5016979795405567</v>
+        <v>0.413635015410127</v>
       </c>
       <c r="K15" t="n">
-        <v>0.280225186232355</v>
+        <v>0.4453282996329982</v>
       </c>
       <c r="L15" t="n">
-        <v>1.043248891489482</v>
+        <v>0.3654826729582926</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3015006716832676</v>
+        <v>0.3836162412540848</v>
       </c>
       <c r="N15" t="n">
-        <v>1.005019296265655</v>
+        <v>1.00812568971091</v>
       </c>
       <c r="O15" t="n">
-        <v>0.314336179469255</v>
+        <v>0.3999475788393647</v>
       </c>
       <c r="P15" t="n">
-        <v>182.7959321400487</v>
+        <v>181.8324503913338</v>
       </c>
       <c r="Q15" t="n">
-        <v>291.2758805533185</v>
+        <v>290.3123988046036</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9860056606979469</v>
+        <v>0.9775728533313454</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8065168730277563</v>
+        <v>0.772212816713687</v>
       </c>
       <c r="D16" t="n">
-        <v>0.997382729625374</v>
+        <v>0.8556049820527633</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5297103890025552</v>
+        <v>0.9509711717105422</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9765825369223832</v>
+        <v>0.9402454660420967</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0935802113508362</v>
+        <v>0.1499704330408084</v>
       </c>
       <c r="H16" t="n">
-        <v>1.293822560971274</v>
+        <v>1.52321394349911</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06124179475384147</v>
+        <v>0.4963405363972322</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5174053326836384</v>
+        <v>0.4174125778389771</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2893236387278556</v>
+        <v>0.4568766241122453</v>
       </c>
       <c r="L16" t="n">
-        <v>1.05448509010935</v>
+        <v>0.358944441509556</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3059088284944326</v>
+        <v>0.3872601619593841</v>
       </c>
       <c r="N16" t="n">
-        <v>1.005167140665373</v>
+        <v>1.008280792616119</v>
       </c>
       <c r="O16" t="n">
-        <v>0.318932000642014</v>
+        <v>0.4037466287930443</v>
       </c>
       <c r="P16" t="n">
-        <v>182.7378726700846</v>
+        <v>181.794634234753</v>
       </c>
       <c r="Q16" t="n">
-        <v>291.2178210833544</v>
+        <v>290.2745826480228</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9856386352592468</v>
+        <v>0.9771675958339421</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8062088357349599</v>
+        <v>0.7715964676853256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9972847813401976</v>
+        <v>0.8503947060137619</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5167742486601512</v>
+        <v>0.9505586456668007</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9759138524306947</v>
+        <v>0.9388446055238291</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09603451214942117</v>
+        <v>0.1526803917919833</v>
       </c>
       <c r="H17" t="n">
-        <v>1.295882407766585</v>
+        <v>1.527335472289789</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06353369735413079</v>
+        <v>0.5142502346731145</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5316374735623365</v>
+        <v>0.4209246658360078</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2975852608196657</v>
+        <v>0.4675874502545612</v>
       </c>
       <c r="L17" t="n">
-        <v>1.064489941614418</v>
+        <v>0.3530973111141267</v>
       </c>
       <c r="M17" t="n">
-        <v>0.309894356433642</v>
+        <v>0.390743383554966</v>
       </c>
       <c r="N17" t="n">
-        <v>1.005302657750432</v>
+        <v>1.008430426153621</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3230872007567757</v>
+        <v>0.4073781383432128</v>
       </c>
       <c r="P17" t="n">
-        <v>182.6860953011261</v>
+        <v>181.758816970019</v>
       </c>
       <c r="Q17" t="n">
-        <v>291.1660437143959</v>
+        <v>290.2387653832888</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.985302952338185</v>
+        <v>0.976780875425858</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8059271360385799</v>
+        <v>0.7710259892844873</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9971948242030311</v>
+        <v>0.8455807807996717</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5050644367822652</v>
+        <v>0.9501774491712579</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9753072772080518</v>
+        <v>0.9375502729565841</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09827922538823854</v>
+        <v>0.1552663929415258</v>
       </c>
       <c r="H18" t="n">
-        <v>1.297766134933386</v>
+        <v>1.531150263983007</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06563861421117677</v>
+        <v>0.5307975245789945</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5445204268929245</v>
+        <v>0.4241700261152358</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3050795205520506</v>
+        <v>0.4774837753471152</v>
       </c>
       <c r="L18" t="n">
-        <v>1.073417322032163</v>
+        <v>0.3478691027855345</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3134951760206822</v>
+        <v>0.3940385678350861</v>
       </c>
       <c r="N18" t="n">
-        <v>1.005426602213593</v>
+        <v>1.008573215227375</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3268413146883604</v>
+        <v>0.4108136054401095</v>
       </c>
       <c r="P18" t="n">
-        <v>182.6398852260855</v>
+        <v>181.7252259462744</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.1198336393554</v>
+        <v>290.2051743595442</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9849966334274797</v>
+        <v>0.9764151583473434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8056700429681889</v>
+        <v>0.7704998173494685</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9971124318136843</v>
+        <v>0.8411470076144361</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4944743838211926</v>
+        <v>0.9498270690245024</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9747577475022877</v>
+        <v>0.9363585501172077</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1003275813545942</v>
+        <v>0.1577119447295252</v>
       </c>
       <c r="H19" t="n">
-        <v>1.299485317478895</v>
+        <v>1.534668778135277</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06756652270950038</v>
+        <v>0.5460380875312958</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5561714388381807</v>
+        <v>0.4271530278589722</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3118689807738405</v>
+        <v>0.486595557695134</v>
       </c>
       <c r="L19" t="n">
-        <v>1.081378615643744</v>
+        <v>0.3431872319718524</v>
       </c>
       <c r="M19" t="n">
-        <v>0.316745294131727</v>
+        <v>0.3971296321473949</v>
       </c>
       <c r="N19" t="n">
-        <v>1.005539704580623</v>
+        <v>1.008708249225596</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3302297970560643</v>
+        <v>0.4140362627595785</v>
       </c>
       <c r="P19" t="n">
-        <v>182.598629266473</v>
+        <v>181.6939700890221</v>
       </c>
       <c r="Q19" t="n">
-        <v>291.0785776797428</v>
+        <v>290.1739185022919</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9847175501036093</v>
+        <v>0.9760716756884286</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8054358236128092</v>
+        <v>0.7700160248117847</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9970370556046378</v>
+        <v>0.8370736429838882</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4849040480981487</v>
+        <v>0.9495060303928675</v>
       </c>
       <c r="F20" t="n">
-        <v>0.974260269780103</v>
+        <v>0.9352641937428703</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1021938128263759</v>
+        <v>0.1600088148512803</v>
       </c>
       <c r="H20" t="n">
-        <v>1.3010515433868</v>
+        <v>1.537903901062429</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06933025884028075</v>
+        <v>0.5600397893518281</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5667005737007889</v>
+        <v>0.4298862272335422</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3180153367771129</v>
+        <v>0.4949628867121297</v>
       </c>
       <c r="L20" t="n">
-        <v>1.088500062866306</v>
+        <v>0.3389973601188301</v>
       </c>
       <c r="M20" t="n">
-        <v>0.319677670202934</v>
+        <v>0.4000110184123436</v>
       </c>
       <c r="N20" t="n">
-        <v>1.005642750730975</v>
+        <v>1.008835073591965</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3332870104474779</v>
+        <v>0.4170403156031178</v>
       </c>
       <c r="P20" t="n">
-        <v>182.561768285809</v>
+        <v>181.6650527448907</v>
       </c>
       <c r="Q20" t="n">
-        <v>291.0417166990788</v>
+        <v>290.1450011581605</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9844636553011449</v>
+        <v>0.9757509849803205</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8052226955446401</v>
+        <v>0.7695723596493137</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9969682687471589</v>
+        <v>0.8333402029770314</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4762591286974394</v>
+        <v>0.9492128380605456</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9738102116200479</v>
+        <v>0.934261711553126</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1038916085395339</v>
+        <v>0.1621532750930442</v>
       </c>
       <c r="H21" t="n">
-        <v>1.302476731760012</v>
+        <v>1.540870692046762</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07093981001555322</v>
+        <v>0.5728730410938468</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5762115798849581</v>
+        <v>0.4323823539309734</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3235758223034366</v>
+        <v>0.5026277557730396</v>
       </c>
       <c r="L21" t="n">
-        <v>1.094860600062936</v>
+        <v>0.3352450993862671</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3223222122962268</v>
+        <v>0.402682598448262</v>
       </c>
       <c r="N21" t="n">
-        <v>1.005736496504193</v>
+        <v>1.008953482468805</v>
       </c>
       <c r="O21" t="n">
-        <v>0.336044136172639</v>
+        <v>0.4198256303320984</v>
       </c>
       <c r="P21" t="n">
-        <v>182.5288142978338</v>
+        <v>181.6384264970217</v>
       </c>
       <c r="Q21" t="n">
-        <v>291.0087627111037</v>
+        <v>290.1183749102915</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9842330485733303</v>
+        <v>0.9754529999073029</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8050290371184997</v>
+        <v>0.7691664073937179</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9969055506588119</v>
+        <v>0.8299250817365939</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4684570221727961</v>
+        <v>0.9489456283780677</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9734034752570738</v>
+        <v>0.9333452798386673</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1054336767902762</v>
+        <v>0.1641459026484075</v>
       </c>
       <c r="H22" t="n">
-        <v>1.303771726547327</v>
+        <v>1.543585296649169</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07240735740046902</v>
+        <v>0.5846121102974653</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5847953364205414</v>
+        <v>0.4346572743457163</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3286010653943969</v>
+        <v>0.5096346923215909</v>
       </c>
       <c r="L22" t="n">
-        <v>1.100556134362077</v>
+        <v>0.3318817338312959</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3247055231902842</v>
+        <v>0.4051492350337188</v>
       </c>
       <c r="N22" t="n">
-        <v>1.005821643603694</v>
+        <v>1.009063507726534</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3385289095455901</v>
+        <v>0.4223972767436397</v>
       </c>
       <c r="P22" t="n">
-        <v>182.4993463595388</v>
+        <v>181.6139991927341</v>
       </c>
       <c r="Q22" t="n">
-        <v>290.9792947728087</v>
+        <v>290.0939476060039</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9840237444995495</v>
+        <v>0.9751772971767733</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8048532957143988</v>
+        <v>0.7687956638628185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9968485118547195</v>
+        <v>0.8268072561173898</v>
       </c>
       <c r="E23" t="n">
-        <v>0.461415978596997</v>
+        <v>0.9487026614517824</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9730359331122332</v>
+        <v>0.9325091808486955</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1068332940954043</v>
+        <v>0.1659895280769542</v>
       </c>
       <c r="H23" t="n">
-        <v>1.304946910125765</v>
+        <v>1.546064460347411</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0737420145941248</v>
+        <v>0.5953292614999688</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5925417833089803</v>
+        <v>0.4367258012628118</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3331420624434221</v>
+        <v>0.5160274136543538</v>
       </c>
       <c r="L23" t="n">
-        <v>1.105646037176566</v>
+        <v>0.3288636577325635</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3268536279367329</v>
+        <v>0.4074181243844635</v>
       </c>
       <c r="N23" t="n">
-        <v>1.005898925107859</v>
+        <v>1.009165305657807</v>
       </c>
       <c r="O23" t="n">
-        <v>0.340768463558285</v>
+        <v>0.424762757411294</v>
       </c>
       <c r="P23" t="n">
-        <v>182.4729713171426</v>
+        <v>181.5916611529785</v>
       </c>
       <c r="Q23" t="n">
-        <v>290.9529197304124</v>
+        <v>290.0716095662483</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9838339241929915</v>
+        <v>0.9749230447596425</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8046938892527442</v>
+        <v>0.7684576893753736</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9967966298707482</v>
+        <v>0.8239647903517198</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4550629900996007</v>
+        <v>0.9484820110218268</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9727039484465955</v>
+        <v>0.9317473727203506</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1081026233594004</v>
+        <v>0.1676897151610318</v>
       </c>
       <c r="H24" t="n">
-        <v>1.306012861868848</v>
+        <v>1.548324497301184</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07495600679171707</v>
+        <v>0.6050998962689534</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5995312426764944</v>
+        <v>0.4386043341175084</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3372437454970389</v>
+        <v>0.5218521151932309</v>
       </c>
       <c r="L24" t="n">
-        <v>1.110214588277557</v>
+        <v>0.3261589614072068</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3287896338989422</v>
+        <v>0.409499346960446</v>
       </c>
       <c r="N24" t="n">
-        <v>1.005969012605665</v>
+        <v>1.009259183473363</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3427868893023903</v>
+        <v>0.4269325819410608</v>
       </c>
       <c r="P24" t="n">
-        <v>182.4493485734738</v>
+        <v>181.5712798816579</v>
       </c>
       <c r="Q24" t="n">
-        <v>290.9292969867436</v>
+        <v>290.0512282949277</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9836620765949389</v>
+        <v>0.974689214073151</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8045495144009944</v>
+        <v>0.7681499988372045</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9967495387761608</v>
+        <v>0.8213765422076387</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4493365829814373</v>
+        <v>0.9482818528383601</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9724044045448987</v>
+        <v>0.9310541335248026</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1092517690388638</v>
+        <v>0.1692533420382923</v>
       </c>
       <c r="H25" t="n">
-        <v>1.306978297167284</v>
+        <v>1.550382025346706</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07605789644645775</v>
+        <v>0.6139966884881405</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6058313469330424</v>
+        <v>0.4403084038709837</v>
       </c>
       <c r="K25" t="n">
-        <v>0.34094462168975</v>
+        <v>0.5271525461795621</v>
       </c>
       <c r="L25" t="n">
-        <v>1.114301147685644</v>
+        <v>0.3237302463110736</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3305325536749199</v>
+        <v>0.411404110380891</v>
       </c>
       <c r="N25" t="n">
-        <v>1.006032464026484</v>
+        <v>1.009345520957606</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3446040087815727</v>
+        <v>0.4289184350837179</v>
       </c>
       <c r="P25" t="n">
-        <v>182.4282005051242</v>
+        <v>181.552717242441</v>
       </c>
       <c r="Q25" t="n">
-        <v>290.9081489183941</v>
+        <v>290.0326656557108</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9835064925526522</v>
+        <v>0.9744748360770676</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8044188370252845</v>
+        <v>0.7678702478555647</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9967067995606907</v>
+        <v>0.8190237992516463</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4441745511084607</v>
+        <v>0.9481005830070601</v>
       </c>
       <c r="F26" t="n">
-        <v>0.972134065583543</v>
+        <v>0.9304243486101759</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1102921602460332</v>
+        <v>0.1706868886852218</v>
       </c>
       <c r="H26" t="n">
-        <v>1.307852137380371</v>
+        <v>1.552252721449066</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07705795600741563</v>
+        <v>0.6220839599008483</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6115105343020687</v>
+        <v>0.4418516654623206</v>
       </c>
       <c r="K26" t="n">
-        <v>0.344284669744064</v>
+        <v>0.5319678126815846</v>
       </c>
       <c r="L26" t="n">
-        <v>1.117967452548191</v>
+        <v>0.3215505488573575</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3321026351085357</v>
+        <v>0.413142697727095</v>
       </c>
       <c r="N26" t="n">
-        <v>1.006089910442098</v>
+        <v>1.009424675910006</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3462409318323342</v>
+        <v>0.4307310376926218</v>
       </c>
       <c r="P26" t="n">
-        <v>182.4092448637879</v>
+        <v>181.5358489224799</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.8891932770578</v>
+        <v>290.0157973357498</v>
       </c>
     </row>
   </sheetData>
